--- a/data/nuc_cell_seg_delivery_20170210/3500000490.xlsx
+++ b/data/nuc_cell_seg_delivery_20170210/3500000490.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="0" windowWidth="19095" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
     <t>3500000490_100X_20170127_E05_P03.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;</t>
+    <t>1;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E05_P03.czi_nucWholeIndexSegScale.tiff</t>
@@ -248,7 +248,7 @@
     <t>3500000490_100X_20170127_E05_P04.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;</t>
+    <t>1;2;3;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E05_P04.czi_nucWholeIndexSegScale.tiff</t>
@@ -260,7 +260,7 @@
     <t>3500000490_100X_20170127_E05_P05.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;</t>
+    <t>1;2;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E05_P05.czi_nucWholeIndexSegScale.tiff</t>
@@ -281,7 +281,7 @@
     <t>3500000490_100X_20170127_E05_P07.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;03;</t>
+    <t>2;3;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E05_P07.czi_nucWholeIndexSegScale.tiff</t>
@@ -302,7 +302,7 @@
     <t>3500000490_100X_20170127_E06_P12.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;03;04;</t>
+    <t>2;3;4;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E06_P12.czi_nucWholeIndexSegScale.tiff</t>
@@ -314,7 +314,7 @@
     <t>3500000490_100X_20170127_E06_P13.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>03;04;</t>
+    <t>3;4;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E06_P13.czi_nucWholeIndexSegScale.tiff</t>
@@ -326,7 +326,7 @@
     <t>3500000490_100X_20170127_E06_P14.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;</t>
+    <t>2;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E06_P14.czi_nucWholeIndexSegScale.tiff</t>
@@ -338,7 +338,7 @@
     <t>3500000490_100X_20170127_E06_P15.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;04;</t>
+    <t>2;4;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E06_P15.czi_nucWholeIndexSegScale.tiff</t>
@@ -377,7 +377,7 @@
     <t>3500000490_100X_20170127_E06_P19.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;03;04;05;</t>
+    <t>1;2;3;4;5;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E06_P19.czi_nucWholeIndexSegScale.tiff</t>
@@ -398,7 +398,7 @@
     <t>3500000490_100X_20170127_E07_P22.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;04;05;06;</t>
+    <t>1;3;4;5;6;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E07_P22.czi_nucWholeIndexSegScale.tiff</t>
@@ -446,7 +446,7 @@
     <t>3500000490_100X_20170127_E07_P28.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>04;</t>
+    <t>4;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E07_P28.czi_nucWholeIndexSegScale.tiff</t>
@@ -467,7 +467,7 @@
     <t>3500000490_100X_20170127_E08_P30.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>03;05;</t>
+    <t>3;5;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E08_P30.czi_nucWholeIndexSegScale.tiff</t>
@@ -506,7 +506,7 @@
     <t>3500000490_100X_20170127_E08_P34.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;04;</t>
+    <t>1;2;4;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_E08_P34.czi_nucWholeIndexSegScale.tiff</t>
@@ -518,7 +518,7 @@
     <t>3500000490_100X_20170127_F05_P48.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>03;04;06;07;</t>
+    <t>3;4;6;7;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_F05_P48.czi_nucWholeIndexSegScale.tiff</t>
@@ -530,7 +530,7 @@
     <t>3500000490_100X_20170127_F05_P49.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;05;</t>
+    <t>2;5;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_F05_P49.czi_nucWholeIndexSegScale.tiff</t>
@@ -560,7 +560,7 @@
     <t>3500000490_100X_20170127_F05_P53.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;04;</t>
+    <t>1;4;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_F05_P53.czi_nucWholeIndexSegScale.tiff</t>
@@ -608,7 +608,7 @@
     <t>3500000490_100X_20170127_F07_P41.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;03;05;</t>
+    <t>1;3;5;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_F07_P41.czi_nucWholeIndexSegScale.tiff</t>
@@ -620,7 +620,7 @@
     <t>3500000490_100X_20170127_F07_P42.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>01;02;06;</t>
+    <t>1;2;6;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_F07_P42.czi_nucWholeIndexSegScale.tiff</t>
@@ -632,7 +632,7 @@
     <t>3500000490_100X_20170127_F07_P43.czi_cellWholeIndexImageScale.tiff</t>
   </si>
   <si>
-    <t>02;03;04;05;</t>
+    <t>2;3;4;5;</t>
   </si>
   <si>
     <t>3500000490_100X_20170127_F07_P43.czi_nucWholeIndexSegScale.tiff</t>
@@ -1143,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1:W45"/>
     </sheetView>
   </sheetViews>
@@ -1243,7 +1243,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>6</v>
@@ -1314,7 +1314,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -1385,7 +1385,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -1456,7 +1456,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -1527,7 +1527,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>6</v>
@@ -1598,7 +1598,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1669,7 +1669,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -1740,7 +1740,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1811,7 +1811,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1882,7 +1882,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -1953,7 +1953,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -2024,7 +2024,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -2095,7 +2095,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -2166,7 +2166,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -2237,7 +2237,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -2308,7 +2308,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -2379,7 +2379,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -2450,7 +2450,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -2521,7 +2521,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>6</v>
@@ -2592,7 +2592,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -2663,7 +2663,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -2734,7 +2734,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>6</v>
@@ -2805,7 +2805,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -2876,7 +2876,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>6</v>
@@ -2947,7 +2947,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -3018,7 +3018,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -3089,7 +3089,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>6</v>
@@ -3160,7 +3160,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -3231,7 +3231,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>6</v>
@@ -3302,7 +3302,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>6</v>
@@ -3373,7 +3373,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>6</v>
@@ -3444,7 +3444,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>6</v>
@@ -3515,7 +3515,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>6</v>
@@ -3586,7 +3586,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>6</v>
@@ -3657,7 +3657,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>6</v>
@@ -3728,7 +3728,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>6</v>
@@ -3799,7 +3799,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -3870,7 +3870,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>6</v>
@@ -3941,7 +3941,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>6</v>
@@ -4012,7 +4012,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>6</v>
@@ -4083,7 +4083,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>6</v>
@@ -4154,7 +4154,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>6</v>
@@ -4225,7 +4225,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>6</v>
@@ -4296,7 +4296,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>6</v>
